--- a/src/assets/webservices.xlsx
+++ b/src/assets/webservices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e339fda2232d375/Documents/Angular/checksemWebServices/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C72E85D-715C-4FB9-AAB9-B182ACCC3806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E8950B21-561A-4A6E-BF5D-31953DFB8482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23F2B5FC-7470-477A-9E78-B7900E9C5970}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="1300" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1670" yWindow="1630" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
   <si>
     <t>url preprod</t>
   </si>
@@ -379,6 +379,27 @@
   </si>
   <si>
     <t>https://chatbot.checksem.fr/</t>
+  </si>
+  <si>
+    <t>chemin logo</t>
+  </si>
+  <si>
+    <t>/assets/logos/nobatek.png</t>
+  </si>
+  <si>
+    <t>/assets/logos/qape.png</t>
+  </si>
+  <si>
+    <t>/assets/logos/wisenet.png</t>
+  </si>
+  <si>
+    <t>/assets/logos/tso.png</t>
+  </si>
+  <si>
+    <t>/assets/logos/qualipac.png</t>
+  </si>
+  <si>
+    <t>/assets/logos/winecloud.png</t>
   </si>
 </sst>
 </file>
@@ -575,13 +596,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -608,11 +627,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -894,719 +914,797 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F65"/>
+  <dimension ref="B3:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F49" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22" style="20" customWidth="1"/>
+    <col min="2" max="2" width="22" style="18" customWidth="1"/>
     <col min="3" max="3" width="68.453125" customWidth="1"/>
     <col min="4" max="4" width="50.81640625" customWidth="1"/>
     <col min="5" max="5" width="74.26953125" customWidth="1"/>
     <col min="6" max="6" width="31.7265625" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" s="21" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:7" s="19" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="G3" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="16"/>
-      <c r="C5" s="3" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="14"/>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="17"/>
-      <c r="C6" s="6" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="15"/>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="17"/>
-      <c r="C7" s="6" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="15"/>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="17"/>
-      <c r="C8" s="6" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="17"/>
-      <c r="C9" s="6" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="15"/>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="17"/>
-      <c r="C10" s="6" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="15"/>
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="18"/>
-      <c r="C11" s="26" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
+      <c r="C11" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="17"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="15"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="17"/>
-      <c r="C15" s="6" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="15"/>
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="17"/>
-      <c r="C16" s="6" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="15"/>
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="17"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="15"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="17"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="15"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="17"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="15"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="17"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="15"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="17"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="15"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="17"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="15"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="17"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="15"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="17"/>
-      <c r="C24" s="6" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="15"/>
+      <c r="C24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="6" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="15"/>
+      <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="18"/>
-      <c r="C26" s="9" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="16"/>
+      <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="16"/>
-      <c r="C28" s="3" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="14"/>
+      <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="6" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="15"/>
+      <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="25" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="6" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="15"/>
+      <c r="C30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="6" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="15"/>
+      <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="17"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="15"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="15"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="17"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="26" t="s">
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="15"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="17"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6" t="s">
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="15"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="16"/>
-      <c r="C37" s="3" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="14"/>
+      <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="C39" s="6" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="15"/>
+      <c r="C39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="25" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="17"/>
-      <c r="C40" s="6" t="s">
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="15"/>
+      <c r="C40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="25" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="17"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="15"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="17"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="15"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="17"/>
-      <c r="C45" s="6" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="15"/>
+      <c r="C45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
-      <c r="C46" s="7" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="15"/>
+      <c r="C46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
-      <c r="C47" s="6" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="15"/>
+      <c r="C47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="17"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="15"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
-      <c r="C51" s="6" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="15"/>
+      <c r="C51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="17"/>
-      <c r="C52" s="6" t="s">
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="15"/>
+      <c r="C52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
-      <c r="C53" s="6" t="s">
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="15"/>
+      <c r="C53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="17"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="12" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="15"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="17"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="15"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8" t="s">
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="17"/>
-      <c r="C58" s="6" t="s">
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="15"/>
+      <c r="C58" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="17"/>
-      <c r="C59" s="6" t="s">
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="15"/>
+      <c r="C59" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="17"/>
-      <c r="C60" s="6" t="s">
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="15"/>
+      <c r="C60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="17"/>
-      <c r="C61" s="6" t="s">
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="15"/>
+      <c r="C61" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="17"/>
-      <c r="C62" s="7" t="s">
+      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="15"/>
+      <c r="C62" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="25" t="s">
+      <c r="D62" s="5"/>
+      <c r="E62" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="17"/>
-      <c r="C63" s="6" t="s">
+      <c r="F62" s="5"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="15"/>
+      <c r="C63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="25" t="s">
+      <c r="D63" s="5"/>
+      <c r="E63" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="19"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="17"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
